--- a/public/template/template-report.xlsx
+++ b/public/template/template-report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PENGAJUAN" sheetId="1" state="visible" r:id="rId2"/>
@@ -168,41 +168,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -284,10 +276,10 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.03515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -299,64 +291,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="39.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="33.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="40.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="9.02"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="true" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="24.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="6" customFormat="true" ht="24.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -382,8 +374,8 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.03515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,64 +387,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="39.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="33.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="40.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="9.02"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="true" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="24.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="6" customFormat="true" ht="24.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
